--- a/Översikt KARLSHAMN.xlsx
+++ b/Översikt KARLSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44166</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44158</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43846</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>43999</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44395</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44595</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44655</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44743</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44901</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>45028</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43320</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43321</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43321</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43377</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43392</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43395</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43398</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43461</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43486</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43491</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43515</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43542</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43542</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43543</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43543</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43543</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43543</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43546</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43546</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43549</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43549</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43558</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43559</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>43566</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>43567</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43572</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>43593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43595</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43598</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43602</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43602</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43611</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43612</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43612</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43623</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43628</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43641</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43661</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43661</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43663</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43686</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43686</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43686</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43686</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43689</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43695</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43707</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43714</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43724</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43724</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43735</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43790</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43790</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43790</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43791</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43805</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43811</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43821</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43822</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43845</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43857</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43859</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43868</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43871</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43908</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43914</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>43914</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43915</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43915</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43915</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43921</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43922</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43922</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43922</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43930</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43930</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43942</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43948</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44056</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44060</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>44060</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44060</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44061</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44075</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44075</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44076</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44083</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44092</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44105</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44117</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44127</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44128</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44128</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44130</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44133</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44133</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44181</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44209</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44227</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44238</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44249</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44249</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44251</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44271</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44273</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44287</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44302</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44308</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44308</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44314</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44316</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44369</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44395</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44395</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44395</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44410</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44410</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44420</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44426</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44439</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44448</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44460</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44462</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44470</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44470</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44476</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44477</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44480</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44480</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44480</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44487</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44489</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44489</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44522</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44523</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44568</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44568</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44568</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44574</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44579</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44580</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44581</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44582</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44586</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44601</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44606</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44623</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44643</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44649</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44660</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44686</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44690</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44720</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44728</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44743</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44760</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>44776</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44796</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44797</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44797</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44816</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44823</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44827</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44862</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44876</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44897</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44897</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44903</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44923</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44923</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44930</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44931</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44939</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44939</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44943</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44943</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44951</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44952</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44952</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44952</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44952</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44959</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44962</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44970</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44971</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44979</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44981</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44981</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44983</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44986</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>45006</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45028</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45029</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>45035</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>45036</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>45036</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>45036</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>45037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45068</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>45072</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>45079</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45079</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45091</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45104</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>45104</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>45106</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45106</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>45108</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>45114</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>45114</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>45117</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>45118</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>45118</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>45118</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45119</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>45119</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>45148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45152</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>45169</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>

--- a/Översikt KARLSHAMN.xlsx
+++ b/Översikt KARLSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44166</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44158</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43846</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>43999</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44395</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44595</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44655</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44743</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44901</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>45028</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43320</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43321</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43321</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43377</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43392</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43395</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43398</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43461</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43486</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43491</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43515</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43542</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43542</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43543</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43543</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43543</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43543</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43546</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43546</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43549</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43549</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43558</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43559</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>43566</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>43567</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43572</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>43593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43595</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43598</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43602</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43602</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43611</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43612</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43612</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43623</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43628</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43641</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43661</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43661</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43663</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43686</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43686</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43686</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43686</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43689</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43695</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43707</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43714</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43724</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43724</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43735</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43790</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43790</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43790</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43791</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43805</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43811</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43821</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43822</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43845</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43857</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43859</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43868</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43871</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43908</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43914</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>43914</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43915</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43915</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43915</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43921</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43922</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43922</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43922</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43930</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43930</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43942</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43948</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44056</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44060</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>44060</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44060</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44061</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44075</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44075</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44076</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44083</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44092</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44105</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44117</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44127</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44128</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44128</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44130</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44133</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44133</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44181</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44209</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44227</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44238</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44249</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44249</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44251</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44271</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44273</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44287</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44302</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44308</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44308</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44314</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44316</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44369</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44395</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44395</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44395</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44410</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44410</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44420</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44426</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44439</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44448</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44460</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44462</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44470</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44470</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44476</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44477</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44480</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44480</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44480</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44487</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44489</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44489</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44522</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44523</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44568</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44568</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44568</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44574</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44579</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44580</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44581</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44582</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44586</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44601</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44606</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44623</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44643</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44649</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44660</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44686</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44690</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44720</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44728</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44743</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44760</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>44776</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44796</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44797</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44797</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44816</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44823</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44827</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44862</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44876</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44897</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44897</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44903</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44923</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44923</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44930</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44931</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44939</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44939</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44943</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44943</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44951</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44952</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44952</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44952</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44952</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44959</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44962</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44970</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44971</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44979</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44981</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44981</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44983</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44986</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>45006</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45028</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45029</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>45035</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>45036</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>45036</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>45036</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>45037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45068</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>45072</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>45079</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45079</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45091</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45104</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>45104</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>45106</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45106</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>45108</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>45114</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>45114</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>45117</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>45118</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>45118</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>45118</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45119</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>45119</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>45148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45152</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>45169</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>

--- a/Översikt KARLSHAMN.xlsx
+++ b/Översikt KARLSHAMN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y328"/>
+  <dimension ref="A1:Y329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44166</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44158</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43846</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>43999</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44395</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44595</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44655</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44743</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44901</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>45028</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43320</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43321</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43321</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43377</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43392</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43395</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43398</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43461</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43486</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43491</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43515</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43542</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43542</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43543</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43543</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43543</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43543</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43546</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43546</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43549</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43549</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43558</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43559</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>43566</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>43567</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43572</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>43593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43595</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43598</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43602</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43602</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43611</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43612</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43612</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43623</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43628</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43641</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43661</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43661</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43663</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43686</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43686</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43686</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43686</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43689</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43695</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43707</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43714</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43724</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43724</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43735</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43790</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43790</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43790</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43791</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43805</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43811</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43821</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43822</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43845</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43857</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43859</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43868</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43871</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43908</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43914</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>43914</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43915</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43915</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43915</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43921</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43922</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43922</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43922</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43930</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43930</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43942</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43948</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44056</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44060</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>44060</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44060</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44061</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44075</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44075</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44076</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44083</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44092</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44105</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44117</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44127</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44128</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44128</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44130</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44133</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44133</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44181</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44209</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44227</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44238</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44249</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44249</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44251</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44271</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44273</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44287</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44302</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44308</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44308</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44314</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44316</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44369</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44395</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44395</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44395</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44410</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44410</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44420</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44426</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44439</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44448</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44460</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44462</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44470</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44470</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44476</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44477</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44480</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44480</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44480</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44487</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44489</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44489</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44522</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44523</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44568</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44568</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44568</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44574</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44579</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44580</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44581</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44582</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44586</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44601</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44606</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44623</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44643</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44649</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44660</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44686</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44690</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44720</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44728</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44743</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44760</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>44776</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44796</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44797</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44797</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44816</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44823</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44827</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44862</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44876</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44897</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44897</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44903</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44923</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44923</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44930</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44931</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44939</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44939</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44943</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44943</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44951</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44952</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44952</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44952</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44952</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44959</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44962</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44970</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44971</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44979</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44981</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44981</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44983</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44986</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>45006</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45028</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45029</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>45035</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>45036</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>45036</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>45036</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>45037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45068</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>45072</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>45079</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45079</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45091</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45104</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>45104</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>45106</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45106</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>45108</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>45114</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>45114</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>45117</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>45118</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>45118</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>45118</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45119</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>45119</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>45148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45152</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
       </c>
       <c r="R327" s="2" t="inlineStr"/>
     </row>
-    <row r="328">
+    <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
           <t>A 40310-2023</t>
@@ -19808,7 +19808,7 @@
         <v>45169</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19854,6 +19854,63 @@
         <v>0</v>
       </c>
       <c r="R328" s="2" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>A 41533-2023</t>
+        </is>
+      </c>
+      <c r="B329" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C329" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>BLEKINGE LÄN</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>KARLSHAMN</t>
+        </is>
+      </c>
+      <c r="G329" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="n">
+        <v>0</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0</v>
+      </c>
+      <c r="L329" t="n">
+        <v>0</v>
+      </c>
+      <c r="M329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N329" t="n">
+        <v>0</v>
+      </c>
+      <c r="O329" t="n">
+        <v>0</v>
+      </c>
+      <c r="P329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>0</v>
+      </c>
+      <c r="R329" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KARLSHAMN.xlsx
+++ b/Översikt KARLSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44166</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44158</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43846</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>43999</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44395</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44595</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44655</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44743</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44901</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>45028</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43320</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43321</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43321</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43377</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43392</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43395</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43398</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43461</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43486</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43491</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43515</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43542</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43542</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43543</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43543</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43543</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43543</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43546</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43546</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43549</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43549</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43558</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43559</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>43566</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>43567</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43572</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>43593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43595</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43598</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43602</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43602</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43611</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43612</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43612</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43623</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43628</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43641</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43661</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43661</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43663</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43686</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43686</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43686</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43686</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43689</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43695</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43707</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43714</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43724</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43724</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43735</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43790</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43790</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43790</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43791</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43805</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43811</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43821</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43822</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43845</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43857</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43859</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43868</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43871</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43908</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43914</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>43914</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43915</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43915</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43915</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43921</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43922</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43922</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43922</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43930</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43930</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43942</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43948</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44056</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44060</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>44060</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44060</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44061</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44075</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44075</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44076</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44083</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44092</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44105</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44117</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44127</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44128</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44128</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44130</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44133</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44133</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44181</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44209</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44227</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44238</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44249</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44249</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44251</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44271</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44273</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44287</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44302</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44308</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44308</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44314</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44316</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44369</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44395</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44395</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44395</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44410</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44410</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44420</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44426</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44439</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44448</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44460</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44462</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44470</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44470</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44476</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44477</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44480</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44480</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44480</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44487</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44489</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44489</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44522</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44523</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44568</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44568</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44568</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44574</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44579</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44580</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44581</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44582</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44586</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44601</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44606</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44623</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44643</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44649</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44660</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44686</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44690</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44720</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44728</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44743</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44760</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>44776</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44796</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44797</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44797</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44816</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44823</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44827</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44862</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44876</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44897</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44897</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44903</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44923</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44923</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44930</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44931</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44939</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44939</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44943</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44943</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44951</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44952</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44952</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44952</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44952</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44959</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44962</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44970</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44971</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44979</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44981</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44981</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44983</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44986</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>45006</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45028</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45029</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>45035</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>45036</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>45036</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>45036</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>45037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45068</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>45072</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>45079</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45079</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45091</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45104</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>45104</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>45106</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45106</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>45108</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>45114</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>45114</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>45117</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>45118</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>45118</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>45118</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45119</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>45119</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>45148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45152</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>45169</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>45175</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>

--- a/Översikt KARLSHAMN.xlsx
+++ b/Översikt KARLSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44166</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44158</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43846</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>43999</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44395</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44595</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44655</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44743</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44901</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>45028</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43320</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43321</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43321</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43377</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43392</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43395</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43398</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43461</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43486</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43491</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43515</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43542</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43542</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43543</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43543</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43543</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43543</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43546</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43546</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43549</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43549</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43558</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43559</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>43566</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>43567</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43572</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>43593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43595</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43598</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43602</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43602</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43611</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43612</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43612</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43623</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43628</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43641</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43661</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43661</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43663</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43686</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43686</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43686</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43686</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43689</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43695</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43707</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43714</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43724</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43724</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43735</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43790</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43790</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43790</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43791</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43805</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43811</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43821</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43822</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43845</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43857</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43859</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43868</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43871</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43908</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43914</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>43914</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43915</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43915</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43915</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43921</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43922</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43922</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43922</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43930</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43930</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43942</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43948</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44056</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44060</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>44060</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44060</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44061</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44075</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44075</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44076</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44083</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44092</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44105</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44117</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44127</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44128</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44128</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44130</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44133</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44133</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44181</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44209</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44227</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44238</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44249</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44249</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44251</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44271</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44273</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44287</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44302</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44308</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44308</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44314</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44316</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44369</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44395</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44395</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44395</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44410</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44410</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44420</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44426</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44439</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44448</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44460</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44462</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44470</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44470</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44476</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44477</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44480</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44480</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44480</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44487</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44489</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44489</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44522</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44523</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44568</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44568</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44568</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44574</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44579</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44580</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44581</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44582</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44586</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44601</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44606</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44623</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44643</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44649</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44660</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44686</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44690</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44720</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44728</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44743</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44760</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>44776</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44796</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44797</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44797</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44816</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44823</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44827</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44862</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44876</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44897</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44897</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44903</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44923</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44923</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44930</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44931</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44939</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44939</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44943</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44943</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44951</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44952</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44952</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44952</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44952</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44959</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44962</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44970</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44971</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44979</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44981</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44981</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44983</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44986</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>45006</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45028</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45029</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>45035</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>45036</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>45036</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>45036</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>45037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45068</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>45072</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>45079</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45079</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45091</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45104</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>45104</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>45106</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45106</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>45108</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>45114</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>45114</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>45117</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>45118</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>45118</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>45118</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45119</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>45119</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>45148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45152</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>45169</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>45175</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>

--- a/Översikt KARLSHAMN.xlsx
+++ b/Översikt KARLSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44166</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44158</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43846</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>43999</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44395</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44595</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44655</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44743</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44901</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>45028</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43320</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43321</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43321</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43377</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43392</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43395</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43398</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43461</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43486</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43491</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43515</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43542</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43542</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43543</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43543</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43543</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43543</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43546</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43546</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43549</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43549</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43558</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43559</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>43566</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>43567</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43572</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>43593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43595</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43598</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43602</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43602</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43611</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43612</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43612</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43623</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43628</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43641</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43661</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43661</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43663</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43686</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43686</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43686</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43686</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43689</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43695</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43707</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43714</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43724</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43724</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43735</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43790</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43790</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43790</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43791</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43805</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43811</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43821</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43822</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43845</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43857</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43859</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43868</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43871</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43908</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43914</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>43914</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43915</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43915</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43915</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43921</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43922</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43922</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43922</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43930</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43930</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43942</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43948</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44056</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44060</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>44060</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44060</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44061</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44075</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44075</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44076</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44083</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44092</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44105</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44117</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44127</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44128</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44128</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44130</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44133</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44133</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44181</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44209</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44227</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44238</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44249</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44249</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44251</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44271</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44273</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44287</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44302</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44308</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44308</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44314</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44316</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44369</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44395</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44395</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44395</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44410</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44410</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44420</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44426</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44439</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44448</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44460</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44462</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44470</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44470</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44476</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44477</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44480</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44480</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44480</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44487</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44489</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44489</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44522</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44523</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44568</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44568</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44568</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44574</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44579</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44580</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44581</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44582</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44586</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44601</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44606</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44623</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44643</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44649</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44660</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44686</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44690</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44720</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44728</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44743</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44760</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>44776</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44796</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44797</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44797</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44816</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44823</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44827</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44862</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44876</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44897</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44897</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44903</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44923</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44923</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44930</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44931</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44939</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44939</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44943</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44943</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44951</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44952</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44952</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44952</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44952</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44959</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44962</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44970</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44971</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44979</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44981</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44981</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44983</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44986</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>45006</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45028</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45029</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>45035</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>45036</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>45036</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>45036</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>45037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45068</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>45072</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>45079</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45079</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45091</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45104</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>45104</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>45106</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45106</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>45108</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>45114</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>45114</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>45117</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>45118</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>45118</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>45118</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45119</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>45119</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>45148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45152</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>45169</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>45175</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>

--- a/Översikt KARLSHAMN.xlsx
+++ b/Översikt KARLSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44166</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44158</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43846</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>43999</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44395</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44595</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44655</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44743</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44901</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>45028</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43320</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43321</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43321</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43377</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43392</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43395</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43398</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43461</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43486</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43491</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43515</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43542</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43542</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43543</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43543</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43543</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43543</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43546</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43546</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43549</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43549</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43558</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43559</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>43566</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>43567</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43572</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>43593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43595</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43598</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43602</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43602</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43611</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43612</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43612</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43623</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43628</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43641</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43661</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43661</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43663</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43686</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43686</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43686</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43686</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43689</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43695</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43707</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43714</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43724</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43724</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43735</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43790</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43790</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43790</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43791</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43805</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43811</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43821</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43822</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43845</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43857</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43859</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43868</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43871</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43908</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43914</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>43914</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43915</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43915</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43915</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43921</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43922</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43922</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43922</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43930</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43930</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43942</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43948</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44056</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44060</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>44060</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44060</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44061</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44075</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44075</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44076</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44083</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44092</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44105</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44117</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44127</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44128</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44128</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44130</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44133</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44133</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44181</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44209</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44227</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44238</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44249</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44249</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44251</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44271</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44273</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44287</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44302</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44308</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44308</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44314</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44316</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44369</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44395</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44395</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44395</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44410</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44410</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44420</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44426</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44439</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44448</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44460</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44462</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44470</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44470</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44476</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44477</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44480</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44480</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44480</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44487</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44489</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44489</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44522</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44523</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44568</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44568</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44568</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44574</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44579</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44580</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44581</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44582</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44586</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44601</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44606</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44623</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44643</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44649</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44660</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44686</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44690</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44720</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44728</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44743</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44760</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>44776</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44796</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44797</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44797</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44816</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44823</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44827</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44862</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44876</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44897</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44897</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44903</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44923</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44923</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44930</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44931</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44939</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44939</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44943</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44943</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44951</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44952</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44952</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44952</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44952</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44959</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44962</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44970</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44971</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44979</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44981</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44981</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44983</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44986</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>45006</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45028</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45029</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>45035</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>45036</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>45036</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>45036</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>45037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45068</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>45072</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>45079</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45079</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45091</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45104</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>45104</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>45106</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45106</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>45108</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>45114</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>45114</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>45117</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>45118</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>45118</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>45118</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45119</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>45119</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>45148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45152</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>45169</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>45175</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>

--- a/Översikt KARLSHAMN.xlsx
+++ b/Översikt KARLSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44166</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44158</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43846</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>43999</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44395</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44595</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44655</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44743</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44901</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>45028</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43320</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43321</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43321</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43377</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43392</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43395</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43398</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43461</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43486</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43491</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43515</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43542</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43542</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43543</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43543</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43543</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43543</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43546</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43546</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43549</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43549</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43558</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43559</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>43566</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>43567</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43572</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>43593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43595</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43598</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43602</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43602</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43611</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43612</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43612</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43623</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43628</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43641</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43661</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43661</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43663</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43686</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43686</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43686</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43686</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43689</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43695</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43707</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43714</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43724</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43724</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43735</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43790</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43790</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43790</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43791</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43805</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43811</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43821</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43822</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43845</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43857</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43859</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43868</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43871</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43908</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43914</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>43914</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43915</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43915</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43915</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43921</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43922</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43922</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43922</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43930</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43930</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43942</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43948</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44056</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44060</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>44060</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44060</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44061</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44075</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44075</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44076</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44083</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44092</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44105</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44117</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44127</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44128</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44128</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44130</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44133</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44133</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44181</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44209</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44227</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44238</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44249</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44249</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44251</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44271</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44273</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44287</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44302</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44308</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44308</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44314</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44316</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44369</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44395</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44395</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44395</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44410</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44410</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44420</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44426</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44439</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44448</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44460</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44462</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44470</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44470</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44476</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44477</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44480</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44480</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44480</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44487</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44489</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44489</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44522</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44523</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44568</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44568</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44568</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44574</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44579</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44580</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44581</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44582</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44586</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44601</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44606</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44623</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44643</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44649</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44660</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44686</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44690</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44720</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44728</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44743</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44760</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>44776</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44796</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44797</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44797</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44816</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44823</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44827</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44862</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44876</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44897</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44897</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44903</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44923</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44923</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44930</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44931</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44939</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44939</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44943</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44943</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44951</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44952</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44952</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44952</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44952</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44959</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44962</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44970</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44971</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44979</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44981</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44981</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44983</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44986</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>45006</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45028</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45029</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>45035</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>45036</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>45036</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>45036</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>45037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45068</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>45072</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>45079</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45079</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45091</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45104</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>45104</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>45106</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45106</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>45108</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>45114</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>45114</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>45117</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>45118</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>45118</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>45118</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45119</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>45119</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>45148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45152</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>45169</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>45175</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>

--- a/Översikt KARLSHAMN.xlsx
+++ b/Översikt KARLSHAMN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y329"/>
+  <dimension ref="A1:Y330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44166</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44158</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43846</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>43999</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44395</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44595</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44655</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44743</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44901</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>45028</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43320</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43321</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43321</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43377</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43392</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43395</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43398</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43461</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43486</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43491</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43515</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43542</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43542</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43543</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43543</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43543</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43543</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43546</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43546</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43549</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43549</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43558</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43559</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>43566</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>43567</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43572</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>43593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43595</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43598</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43602</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43602</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43611</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43612</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43612</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43623</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43628</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43641</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43661</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43661</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43663</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43686</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43686</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43686</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43686</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43689</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43695</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43707</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43714</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43724</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43724</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43735</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43790</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43790</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43790</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43791</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43805</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43811</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43821</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43822</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43845</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43857</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43859</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43868</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43871</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43908</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43914</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>43914</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43915</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43915</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43915</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43921</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43922</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43922</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43922</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43930</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43930</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43942</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43948</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44056</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44060</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>44060</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44060</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44061</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44075</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44075</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44076</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44083</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44092</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44105</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44117</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44127</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44128</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44128</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44130</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44133</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44133</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44181</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44209</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44227</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44238</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44249</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44249</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44251</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44271</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44273</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44287</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44302</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44308</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44308</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44314</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44316</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44369</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44395</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44395</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44395</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44410</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44410</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44420</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44426</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44439</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44448</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44460</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44462</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44470</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44470</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44476</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44477</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44480</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44480</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44480</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44487</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44489</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44489</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44522</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44523</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44568</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44568</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44568</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44574</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44579</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44580</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44581</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44582</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44586</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44601</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44606</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44623</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44643</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44649</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44660</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44686</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44690</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44720</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44728</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44743</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44760</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>44776</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44796</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44797</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44797</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44816</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44823</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44827</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44862</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44876</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44897</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44897</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44903</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44923</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44923</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44930</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44931</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44939</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44939</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44943</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44943</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44951</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44952</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44952</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44952</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44952</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44959</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44962</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44970</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44971</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44979</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44981</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44981</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44983</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44986</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>45006</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45028</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45029</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>45035</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>45036</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>45036</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>45036</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>45037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45068</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>45072</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>45079</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45079</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45091</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45104</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>45104</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>45106</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45106</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>45108</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>45114</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>45114</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>45117</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>45118</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>45118</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>45118</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45119</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>45119</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>45148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45152</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>45169</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
       </c>
       <c r="R328" s="2" t="inlineStr"/>
     </row>
-    <row r="329">
+    <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
           <t>A 41533-2023</t>
@@ -19865,7 +19865,7 @@
         <v>45175</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19911,6 +19911,63 @@
         <v>0</v>
       </c>
       <c r="R329" s="2" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>A 43146-2023</t>
+        </is>
+      </c>
+      <c r="B330" s="1" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C330" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>BLEKINGE LÄN</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>KARLSHAMN</t>
+        </is>
+      </c>
+      <c r="G330" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N330" t="n">
+        <v>0</v>
+      </c>
+      <c r="O330" t="n">
+        <v>0</v>
+      </c>
+      <c r="P330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R330" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KARLSHAMN.xlsx
+++ b/Översikt KARLSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44166</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,27 +634,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 63780-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 63780-2020.xlsx", "A 63780-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 63780-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 63780-2020.png", "A 63780-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 63780-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 63780-2020.docx", "A 63780-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 63780-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 63780-2020.docx", "A 63780-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 63780-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 63780-2020.docx", "A 63780-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 63780-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 63780-2020.docx", "A 63780-2020")</f>
         <v/>
       </c>
     </row>
@@ -668,7 +668,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,27 +724,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 2574-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 2574-2023.xlsx", "A 2574-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 2574-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 2574-2023.png", "A 2574-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 2574-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 2574-2023.docx", "A 2574-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 2574-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 2574-2023.docx", "A 2574-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 2574-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 2574-2023.docx", "A 2574-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 2574-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 2574-2023.docx", "A 2574-2023")</f>
         <v/>
       </c>
     </row>
@@ -758,7 +758,7 @@
         <v>44158</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -811,27 +811,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 61706-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 61706-2020.xlsx", "A 61706-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 61706-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 61706-2020.png", "A 61706-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 61706-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 61706-2020.docx", "A 61706-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 61706-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 61706-2020.docx", "A 61706-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 61706-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 61706-2020.docx", "A 61706-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 61706-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 61706-2020.docx", "A 61706-2020")</f>
         <v/>
       </c>
     </row>
@@ -845,7 +845,7 @@
         <v>43846</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -897,27 +897,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 3428-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 3428-2020.xlsx", "A 3428-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 3428-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 3428-2020.png", "A 3428-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 3428-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 3428-2020.docx", "A 3428-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 3428-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 3428-2020.docx", "A 3428-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 3428-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 3428-2020.docx", "A 3428-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 3428-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 3428-2020.docx", "A 3428-2020")</f>
         <v/>
       </c>
     </row>
@@ -931,7 +931,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -988,27 +988,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 10096-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 10096-2022.xlsx", "A 10096-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 10096-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 10096-2022.png", "A 10096-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 10096-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 10096-2022.docx", "A 10096-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 10096-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 10096-2022.docx", "A 10096-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 10096-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 10096-2022.docx", "A 10096-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 10096-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 10096-2022.docx", "A 10096-2022")</f>
         <v/>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1073,27 +1073,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 50115-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 50115-2018.xlsx", "A 50115-2018")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 50115-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 50115-2018.png", "A 50115-2018")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 50115-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 50115-2018.docx", "A 50115-2018")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 50115-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 50115-2018.docx", "A 50115-2018")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 50115-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 50115-2018.docx", "A 50115-2018")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 50115-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 50115-2018.docx", "A 50115-2018")</f>
         <v/>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
         <v>43977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1158,27 +1158,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 24509-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 24509-2020.xlsx", "A 24509-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 24509-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 24509-2020.png", "A 24509-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 24509-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 24509-2020.docx", "A 24509-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 24509-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 24509-2020.docx", "A 24509-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 24509-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 24509-2020.docx", "A 24509-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 24509-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 24509-2020.docx", "A 24509-2020")</f>
         <v/>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
         <v>43999</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1243,27 +1243,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 28730-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 28730-2020.xlsx", "A 28730-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 28730-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 28730-2020.png", "A 28730-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 28730-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 28730-2020.docx", "A 28730-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 28730-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 28730-2020.docx", "A 28730-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 28730-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 28730-2020.docx", "A 28730-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 28730-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 28730-2020.docx", "A 28730-2020")</f>
         <v/>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
         <v>44111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1333,27 +1333,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 52200-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 52200-2020.xlsx", "A 52200-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 52200-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 52200-2020.png", "A 52200-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 52200-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 52200-2020.docx", "A 52200-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 52200-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 52200-2020.docx", "A 52200-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 52200-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 52200-2020.docx", "A 52200-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 52200-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 52200-2020.docx", "A 52200-2020")</f>
         <v/>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
         <v>44395</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1418,27 +1418,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 37115-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 37115-2021.xlsx", "A 37115-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 37115-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 37115-2021.png", "A 37115-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 37115-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 37115-2021.docx", "A 37115-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 37115-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 37115-2021.docx", "A 37115-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 37115-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 37115-2021.docx", "A 37115-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 37115-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 37115-2021.docx", "A 37115-2021")</f>
         <v/>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1503,27 +1503,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 49902-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 49902-2021.xlsx", "A 49902-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 49902-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 49902-2021.png", "A 49902-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 49902-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 49902-2021.docx", "A 49902-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 49902-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 49902-2021.docx", "A 49902-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 49902-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 49902-2021.docx", "A 49902-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 49902-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 49902-2021.docx", "A 49902-2021")</f>
         <v/>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
         <v>44595</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1588,27 +1588,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 5497-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 5497-2022.xlsx", "A 5497-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 5497-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 5497-2022.png", "A 5497-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 5497-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 5497-2022.docx", "A 5497-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 5497-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 5497-2022.docx", "A 5497-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 5497-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 5497-2022.docx", "A 5497-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 5497-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 5497-2022.docx", "A 5497-2022")</f>
         <v/>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
         <v>44655</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1673,27 +1673,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 14598-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 14598-2022.xlsx", "A 14598-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 14598-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 14598-2022.png", "A 14598-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 14598-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 14598-2022.docx", "A 14598-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 14598-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 14598-2022.docx", "A 14598-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 14598-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 14598-2022.docx", "A 14598-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 14598-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 14598-2022.docx", "A 14598-2022")</f>
         <v/>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
         <v>44743</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1763,27 +1763,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 27704-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 27704-2022.xlsx", "A 27704-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 27704-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 27704-2022.png", "A 27704-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 27704-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 27704-2022.docx", "A 27704-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 27704-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 27704-2022.docx", "A 27704-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 27704-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 27704-2022.docx", "A 27704-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 27704-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 27704-2022.docx", "A 27704-2022")</f>
         <v/>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
         <v>44901</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,27 +1853,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 58405-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 58405-2022.xlsx", "A 58405-2022")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 58405-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 58405-2022.png", "A 58405-2022")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 58405-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 58405-2022.docx", "A 58405-2022")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 58405-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 58405-2022.docx", "A 58405-2022")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 58405-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 58405-2022.docx", "A 58405-2022")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 58405-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 58405-2022.docx", "A 58405-2022")</f>
         <v/>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1938,27 +1938,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 2573-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 2573-2023.xlsx", "A 2573-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 2573-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 2573-2023.png", "A 2573-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 2573-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 2573-2023.docx", "A 2573-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 2573-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 2573-2023.docx", "A 2573-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 2573-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 2573-2023.docx", "A 2573-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 2573-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 2573-2023.docx", "A 2573-2023")</f>
         <v/>
       </c>
     </row>
@@ -1972,7 +1972,7 @@
         <v>45028</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2023,27 +2023,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 16893-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 16893-2023.xlsx", "A 16893-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 16893-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 16893-2023.png", "A 16893-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 16893-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 16893-2023.docx", "A 16893-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 16893-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 16893-2023.docx", "A 16893-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 16893-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 16893-2023.docx", "A 16893-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 16893-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 16893-2023.docx", "A 16893-2023")</f>
         <v/>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2108,27 +2108,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 33549-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/artfynd/A 33549-2023.xlsx", "A 33549-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 33549-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/kartor/A 33549-2023.png", "A 33549-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 33549-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 33549-2023.docx", "A 33549-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 33549-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 33549-2023.docx", "A 33549-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 33549-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 33549-2023.docx", "A 33549-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 33549-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 33549-2023.docx", "A 33549-2023")</f>
         <v/>
       </c>
     </row>
@@ -2142,7 +2142,7 @@
         <v>43320</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43321</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43321</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43377</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43392</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43395</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43398</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43461</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43486</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43491</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43515</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43542</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43542</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43543</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43543</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43543</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43543</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43546</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43546</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43549</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43549</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43558</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43559</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>43566</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>43567</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43572</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>43593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43595</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43598</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43602</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43602</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43611</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43612</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43612</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43623</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43628</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43641</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43661</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43661</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43663</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43686</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43686</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43686</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43686</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43689</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43695</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43707</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43714</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43724</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43724</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43735</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43790</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43790</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43790</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43791</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8199,23 +8199,23 @@
       </c>
       <c r="R125" s="2" t="inlineStr"/>
       <c r="U125">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/knärot/A 63192-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/knärot/A 63192-2019.png", "A 63192-2019")</f>
         <v/>
       </c>
       <c r="V125">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 63192-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomål/A 63192-2019.docx", "A 63192-2019")</f>
         <v/>
       </c>
       <c r="W125">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 63192-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/klagomålsmail/A 63192-2019.docx", "A 63192-2019")</f>
         <v/>
       </c>
       <c r="X125">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 63192-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsyn/A 63192-2019.docx", "A 63192-2019")</f>
         <v/>
       </c>
       <c r="Y125">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 63192-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSHAMN/tillsynsmail/A 63192-2019.docx", "A 63192-2019")</f>
         <v/>
       </c>
     </row>
@@ -8229,7 +8229,7 @@
         <v>43805</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43811</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43821</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43822</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43845</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43857</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43859</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43868</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43871</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43908</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43914</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>43914</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43915</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43915</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43915</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43921</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43922</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43922</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43922</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43930</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43930</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43942</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43948</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44056</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44060</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>44060</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44060</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44061</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44075</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44075</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44076</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44083</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44092</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44105</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44117</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44127</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44128</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44128</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44130</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44133</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44133</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44181</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44209</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44227</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44238</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44249</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44249</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44251</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44271</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44273</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44287</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44302</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44308</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44308</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44314</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44316</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44369</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44395</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44395</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44395</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44410</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44410</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44420</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44426</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44439</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44448</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44460</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44462</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44470</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44470</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44476</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44477</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44480</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44480</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44480</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44487</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44489</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44489</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44522</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44523</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44568</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44568</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44568</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44574</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44579</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44580</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44581</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44582</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44586</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44601</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44606</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44623</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44643</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44649</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44660</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44686</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44690</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44720</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44728</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44743</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44760</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>44776</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44796</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44797</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44797</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44816</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44823</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44827</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44862</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44876</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44897</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44897</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44903</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44923</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44923</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44930</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44931</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44939</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44939</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44943</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44943</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44951</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44952</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44952</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44952</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44952</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44959</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44962</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44970</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44971</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44979</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44981</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44981</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44983</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44986</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>45006</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45028</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45029</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>45035</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>45036</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>45036</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>45036</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>45037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45068</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>45072</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>45079</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45079</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45091</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45104</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>45104</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>45106</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45106</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>45108</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>45114</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>45114</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>45117</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>45118</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>45118</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>45118</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45119</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>45119</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>45148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45152</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>45169</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>45175</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>45183</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>

--- a/Översikt KARLSHAMN.xlsx
+++ b/Översikt KARLSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44166</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44158</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43846</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>43999</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44395</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44595</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44655</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44743</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44901</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>45028</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43320</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43321</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43321</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43377</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43392</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43395</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43398</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43461</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43486</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43491</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43515</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43542</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43542</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43543</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43543</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43543</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43543</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43546</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43546</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43549</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43549</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43558</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43559</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>43566</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>43567</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43572</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>43593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43595</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43598</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43602</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43602</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43611</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43612</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43612</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43623</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43628</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43641</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43661</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43661</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43663</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43686</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43686</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43686</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43686</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43689</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43695</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43707</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43714</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43724</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43724</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43735</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43790</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43790</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43790</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43791</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43805</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43811</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43821</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43822</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43845</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43857</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43859</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43868</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43871</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43908</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43914</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>43914</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43915</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43915</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43915</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43921</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43922</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43922</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43922</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43930</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43930</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43942</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43948</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44056</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44060</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>44060</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44060</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44061</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44075</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44075</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44076</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44083</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44092</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44105</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44117</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44127</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44128</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44128</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44130</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44133</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44133</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44181</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44209</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44227</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44238</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44249</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44249</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44251</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44271</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44273</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44287</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44302</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44308</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44308</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44314</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44316</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44369</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44395</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44395</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44395</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44410</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44410</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44420</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44426</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44439</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44448</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44460</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44462</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44470</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44470</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44476</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44477</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44480</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44480</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44480</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44487</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44489</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44489</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44522</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44523</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44568</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44568</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44568</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44574</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44579</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44580</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44581</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44582</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44586</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44601</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44606</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44623</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44643</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44649</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44660</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44686</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44690</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44720</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44728</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44743</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44760</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>44776</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44796</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44797</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44797</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44816</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44823</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44827</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44862</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44876</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44897</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44897</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44903</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44923</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44923</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44930</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44931</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44939</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44939</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44943</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44943</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44951</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44952</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44952</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44952</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44952</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44959</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44962</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44970</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44971</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44979</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44981</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44981</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44983</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44986</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>45006</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45028</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45029</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>45035</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>45036</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>45036</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>45036</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>45037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45068</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>45072</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>45079</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45079</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45091</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45104</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>45104</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>45106</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45106</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>45108</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>45114</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>45114</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>45117</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>45118</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>45118</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>45118</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45119</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>45119</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>45148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45152</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>45169</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>45175</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>45183</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>

--- a/Översikt KARLSHAMN.xlsx
+++ b/Översikt KARLSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44166</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44158</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43846</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>43999</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44395</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44595</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44655</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44743</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44901</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>45028</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43320</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43321</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43321</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43377</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43392</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43395</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43398</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43461</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43486</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43491</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43515</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43542</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43542</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43543</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43543</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43543</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43543</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43546</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43546</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43549</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43549</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43558</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43559</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>43566</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>43567</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43572</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>43593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43595</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43598</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43602</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43602</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43611</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43612</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43612</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43623</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43628</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43641</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43661</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43661</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43663</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43686</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43686</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43686</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43686</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43689</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43695</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43707</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43714</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43724</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43724</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43735</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43790</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43790</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43790</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43791</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43805</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43811</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43821</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43822</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43845</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43857</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43859</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43868</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43871</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43908</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43914</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>43914</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43915</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43915</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43915</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43921</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43922</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43922</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43922</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43930</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43930</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43942</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43948</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44056</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44060</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>44060</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44060</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44061</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44075</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44075</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44076</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44083</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44092</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44105</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44117</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44127</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44128</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44128</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44130</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44133</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44133</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44181</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44209</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44227</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44238</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44249</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44249</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44251</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44271</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44273</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44287</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44302</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44308</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44308</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44314</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44316</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44369</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44395</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44395</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44395</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44410</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44410</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44420</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44426</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44439</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44448</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44460</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44462</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44470</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44470</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44476</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44477</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44480</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44480</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44480</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44487</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44489</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44489</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44522</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44523</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44568</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44568</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44568</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44574</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44579</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44580</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44581</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44582</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44586</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44601</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44606</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44623</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44643</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44649</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44660</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44686</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44690</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44720</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44728</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44743</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44760</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>44776</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44796</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44797</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44797</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44816</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44823</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44827</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44862</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44876</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44897</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44897</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44903</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44923</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44923</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44930</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44931</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44939</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44939</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44943</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44943</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44951</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44952</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44952</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44952</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44952</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44959</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44962</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44970</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44971</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44979</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44981</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44981</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44983</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44986</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>45006</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45028</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45029</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>45035</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>45036</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>45036</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>45036</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>45037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45068</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>45072</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>45079</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45079</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45091</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45104</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>45104</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>45106</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45106</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>45108</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>45114</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>45114</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>45117</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>45118</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>45118</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>45118</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45119</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>45119</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>45148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45152</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>45169</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>45175</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>45183</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>

--- a/Översikt KARLSHAMN.xlsx
+++ b/Översikt KARLSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44166</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44158</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43846</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>43999</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44395</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44595</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44655</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44743</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44901</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>45028</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43320</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43321</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43321</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43377</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43392</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43395</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43398</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43461</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43486</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43491</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43515</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43542</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43542</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43543</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43543</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43543</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43543</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43546</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43546</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43549</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43549</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43558</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43559</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>43566</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>43567</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43572</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>43593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43595</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43598</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43602</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43602</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43611</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43612</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43612</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43623</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43628</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43641</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43661</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43661</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43663</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43686</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43686</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43686</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43686</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43689</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43695</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43707</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43714</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43724</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43724</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43735</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43790</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43790</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43790</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43791</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43805</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43811</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43821</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43822</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43845</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43857</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43859</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43868</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43871</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43908</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43914</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>43914</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43915</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43915</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43915</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43921</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43922</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43922</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43922</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43930</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43930</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43942</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43948</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44056</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44060</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>44060</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44060</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44061</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44075</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44075</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44076</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44083</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44092</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44105</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44117</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44127</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44128</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44128</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44130</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44133</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44133</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44181</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44209</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44227</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44238</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44249</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44249</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44251</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44271</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44273</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44287</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44302</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44308</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44308</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44314</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44316</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44369</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44395</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44395</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44395</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44410</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44410</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44420</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44426</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44439</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44448</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44460</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44462</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44470</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44470</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44476</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44477</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44480</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44480</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44480</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44487</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44489</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44489</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44522</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44523</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44568</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44568</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44568</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44574</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44579</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44580</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44581</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44582</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44586</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44601</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44606</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44623</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44643</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44649</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44660</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44686</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44690</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44720</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44728</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44743</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44760</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>44776</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44796</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44797</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44797</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44816</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44823</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44827</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44862</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44876</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44897</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44897</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44903</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44923</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44923</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44930</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44931</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44939</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44939</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44943</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44943</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44951</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44952</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44952</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44952</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44952</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44959</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44962</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44970</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44971</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44979</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44981</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44981</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44983</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44986</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>45006</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45028</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45029</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>45035</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>45036</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>45036</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>45036</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>45037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45068</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>45072</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>45079</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45079</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45091</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45104</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>45104</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>45106</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45106</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>45108</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>45114</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>45114</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>45117</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>45118</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>45118</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>45118</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45119</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>45119</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>45148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45152</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>45169</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>45175</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>45183</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>

--- a/Översikt KARLSHAMN.xlsx
+++ b/Översikt KARLSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44166</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44158</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43846</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>43999</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44395</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44595</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44655</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44743</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44901</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>45028</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43320</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43321</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43321</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43377</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43392</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43395</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43398</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43461</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43486</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43491</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43515</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43542</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43542</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43543</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43543</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43543</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43543</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43546</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43546</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43549</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43549</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43558</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43559</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>43566</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>43567</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43572</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>43593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43595</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43598</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43602</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43602</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43611</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43612</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43612</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43623</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43628</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43641</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43661</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43661</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43663</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43686</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43686</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43686</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43686</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43689</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43695</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43707</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43714</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43724</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43724</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43735</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43790</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43790</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43790</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43791</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43805</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43811</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43821</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43822</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43845</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43857</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43859</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43868</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43871</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43908</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43914</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>43914</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43915</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43915</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43915</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43921</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43922</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43922</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43922</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43930</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43930</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43942</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43948</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44056</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44060</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>44060</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44060</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44061</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44075</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44075</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44076</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44083</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44092</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44105</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44117</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44127</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44128</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44128</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44130</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44133</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44133</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44181</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44209</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44227</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44238</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44249</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44249</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44251</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44271</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44273</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44287</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44302</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44308</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44308</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44314</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44316</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44369</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44395</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44395</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44395</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44410</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44410</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44420</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44426</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44439</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44448</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44460</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44462</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44470</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44470</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44476</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44477</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44480</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44480</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44480</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44487</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44489</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44489</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44522</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44523</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44568</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44568</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44568</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44574</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44579</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44580</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44581</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44582</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44586</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44601</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44606</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44623</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44643</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44649</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44660</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44686</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44690</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44720</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44728</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44743</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44760</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>44776</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44796</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44797</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44797</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44816</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44823</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44827</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44862</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44876</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44897</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44897</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44903</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44923</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44923</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44930</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44931</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44939</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44939</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44943</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44943</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44951</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44952</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44952</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44952</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44952</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44959</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44962</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44970</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44971</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44979</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44981</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44981</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44983</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44986</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>45006</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45028</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45029</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>45035</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>45036</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>45036</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>45036</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>45037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45068</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>45072</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>45079</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45079</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45091</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45104</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>45104</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>45106</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45106</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>45108</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>45114</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>45114</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>45117</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>45118</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>45118</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>45118</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45119</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>45119</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>45148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45152</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>45169</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>45175</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>45183</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>

--- a/Översikt KARLSHAMN.xlsx
+++ b/Översikt KARLSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44166</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44158</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43846</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>43999</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44395</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44595</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44655</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44743</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44901</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>45028</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43320</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43321</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43321</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43377</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43392</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43395</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43398</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43461</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43486</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43491</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43515</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43542</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43542</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43543</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43543</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43543</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43543</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43546</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43546</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43549</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43549</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43558</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43559</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>43566</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>43567</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43572</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>43593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43595</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43598</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43602</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43602</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43611</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43612</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43612</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43623</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43628</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43641</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43661</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43661</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43663</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43686</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43686</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43686</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43686</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43689</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43695</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43707</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43714</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43724</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43724</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43735</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43790</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43790</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43790</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43791</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43805</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43811</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43821</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43822</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43845</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43857</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43859</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43868</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43871</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43908</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43914</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>43914</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43915</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43915</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43915</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43921</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43922</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43922</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43922</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43930</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43930</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43942</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43948</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44056</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44060</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>44060</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44060</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44061</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44075</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44075</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44076</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44083</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44092</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44105</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44117</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44127</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44128</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44128</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44130</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44133</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44133</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44181</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44209</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44227</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44238</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44249</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44249</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44251</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44271</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44273</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44287</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44302</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44308</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44308</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44314</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44316</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44369</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44395</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44395</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44395</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44410</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44410</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44420</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44426</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44439</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44448</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44460</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44462</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44470</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44470</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44476</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44477</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44480</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44480</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44480</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44487</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44489</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44489</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44522</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44523</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44568</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44568</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44568</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44574</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44579</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44580</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44581</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44582</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44586</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44601</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44606</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44623</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44643</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44649</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44660</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44686</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44690</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44720</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44728</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44743</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44760</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>44776</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44796</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44797</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44797</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44816</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44823</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44827</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44862</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44876</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44897</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44897</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44903</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44923</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44923</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44930</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44931</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44939</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44939</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44943</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44943</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44951</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44952</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44952</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44952</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44952</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44959</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44962</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44970</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44971</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44979</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44981</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44981</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44983</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44986</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>45006</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45028</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45029</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>45035</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>45036</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>45036</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>45036</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>45037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45068</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>45072</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>45079</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45079</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45091</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45104</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>45104</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>45106</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45106</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>45108</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>45114</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>45114</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>45117</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>45118</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>45118</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>45118</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45119</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>45119</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>45148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45152</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>45169</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>45175</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>45183</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>

--- a/Översikt KARLSHAMN.xlsx
+++ b/Översikt KARLSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44166</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44158</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43846</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>43999</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44395</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44595</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44655</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44743</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44901</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>45028</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43320</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43321</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43321</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43377</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43392</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43395</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43398</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43461</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43486</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43491</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43515</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43542</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43542</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43543</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43543</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43543</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43543</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43546</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43546</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43549</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43549</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43558</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43559</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>43566</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>43567</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43572</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>43593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43595</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43598</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43602</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43602</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43611</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43612</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43612</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43623</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43628</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43641</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43661</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43661</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43663</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43686</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43686</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43686</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43686</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43689</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43695</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43707</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43714</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43724</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43724</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43735</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43790</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43790</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43790</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43791</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43805</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43811</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43821</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43822</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43845</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43857</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43859</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43868</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43871</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43908</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43914</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>43914</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43915</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43915</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43915</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43921</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43922</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43922</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43922</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43930</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43930</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43942</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43948</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44056</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44060</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>44060</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44060</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44061</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44075</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44075</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44076</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44083</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44092</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44105</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44117</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44127</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44128</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44128</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44130</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44133</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44133</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44181</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44209</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44227</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44238</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44249</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44249</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44251</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44271</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44273</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44287</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44302</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44308</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44308</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44314</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44316</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44369</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44395</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44395</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44395</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44410</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44410</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44420</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44426</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44439</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44448</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44460</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44462</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44470</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44470</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44476</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44477</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44480</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44480</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44480</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44487</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44489</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44489</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44522</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44523</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44568</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44568</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44568</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44574</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44579</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44580</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44581</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44582</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44586</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44601</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44606</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44623</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44643</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44649</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44660</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44686</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44690</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44720</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44728</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44743</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44760</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>44776</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44796</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44797</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44797</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44816</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44823</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44827</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44862</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44876</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44897</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44897</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44903</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44923</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44923</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44930</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44931</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44939</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44939</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44943</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44943</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44951</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44952</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44952</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44952</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44952</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44959</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44962</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44970</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44971</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44979</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44981</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44981</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44983</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44986</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>45006</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45028</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45029</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>45035</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>45036</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>45036</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>45036</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>45037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45068</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>45072</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>45079</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45079</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45091</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45104</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>45104</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>45106</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45106</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>45108</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>45114</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>45114</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>45117</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>45118</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>45118</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>45118</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45119</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>45119</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>45148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45152</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>45169</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>45175</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>45183</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>

--- a/Översikt KARLSHAMN.xlsx
+++ b/Översikt KARLSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44166</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44158</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43846</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>43999</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44395</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44595</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44655</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44743</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44901</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>45028</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43320</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43321</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43321</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43377</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43392</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43395</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43398</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43461</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43486</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43491</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43515</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43542</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43542</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43543</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43543</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43543</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43543</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43546</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43546</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43549</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43549</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43558</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43559</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>43566</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>43567</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43572</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>43593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43595</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43598</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43602</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43602</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43611</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43612</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43612</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43623</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43628</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43641</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43661</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43661</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43663</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43686</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43686</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43686</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43686</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43689</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43695</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43707</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43714</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43724</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43724</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43735</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43790</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43790</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43790</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43791</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43805</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43811</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43821</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43822</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43845</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43857</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43859</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43868</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43871</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43908</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43914</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>43914</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43915</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43915</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43915</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43921</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43922</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43922</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43922</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43930</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43930</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43942</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43948</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44056</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44060</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>44060</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44060</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44061</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44075</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44075</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44076</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44083</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44092</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44105</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44117</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44127</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44128</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44128</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44130</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44133</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44133</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44181</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44209</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44227</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44238</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44249</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44249</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44251</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44271</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44273</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44287</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44302</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44308</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44308</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44314</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44316</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44369</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44395</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44395</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44395</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44410</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44410</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44420</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44426</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44439</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44448</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44460</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44462</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44470</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44470</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44476</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44477</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44480</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44480</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44480</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44487</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44489</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44489</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44522</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44523</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44568</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44568</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44568</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44574</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44579</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44580</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44581</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44582</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44586</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44601</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44606</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44623</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44643</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44649</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44660</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44686</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44690</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44720</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44728</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44743</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44760</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>44776</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44796</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44797</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44797</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44816</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44823</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44827</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44862</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44876</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44897</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44897</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44903</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44923</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44923</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44930</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44931</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44939</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44939</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44943</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44943</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44951</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44952</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44952</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44952</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44952</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44959</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44962</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44970</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44971</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44979</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44981</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44981</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44983</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44986</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>45006</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45028</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45029</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>45035</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>45036</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>45036</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>45036</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>45037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45068</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>45072</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>45079</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45079</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45091</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45104</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>45104</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>45106</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45106</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>45108</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>45114</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>45114</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>45117</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>45118</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>45118</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>45118</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45119</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>45119</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>45148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45152</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>45169</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>45175</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>45183</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>

--- a/Översikt KARLSHAMN.xlsx
+++ b/Översikt KARLSHAMN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y330"/>
+  <dimension ref="A1:Y331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44166</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44158</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43846</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>43999</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44395</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44595</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44655</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44743</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44901</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>45028</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43320</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43321</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43321</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43377</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43392</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43395</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43398</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43461</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43486</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43491</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43515</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43542</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43542</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43543</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43543</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43543</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43543</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43546</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43546</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43549</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43549</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43558</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43559</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>43566</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>43567</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43572</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>43593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43595</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43598</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43602</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43602</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43611</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43612</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43612</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43623</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43628</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43641</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43661</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43661</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43663</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43686</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43686</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43686</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43686</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43689</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43695</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43707</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43714</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43724</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43724</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43735</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43790</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43790</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43790</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43791</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43805</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43811</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43821</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43822</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43845</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43857</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43859</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43868</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43871</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43908</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43914</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>43914</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43915</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43915</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43915</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43921</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43922</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43922</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43922</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43930</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43930</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43942</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43948</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44056</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44060</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>44060</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44060</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44061</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44075</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44075</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44076</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44083</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44092</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44105</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44117</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44127</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44128</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44128</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44130</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44133</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44133</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44181</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44209</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44227</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44238</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44249</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44249</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44251</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44271</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44273</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44287</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44302</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44308</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44308</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44314</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44316</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44369</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44395</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44395</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44395</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44410</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44410</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44420</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44426</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44439</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44448</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44460</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44462</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44470</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44470</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44476</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44477</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44480</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44480</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44480</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44487</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44489</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44489</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44522</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44523</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44568</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44568</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44568</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44574</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44579</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44580</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44581</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44582</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44586</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44601</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44606</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44623</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44643</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44649</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44660</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44686</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44690</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44720</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44728</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44743</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44760</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>44776</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44796</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44797</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44797</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44816</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44823</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44827</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44862</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44876</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44897</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44897</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44903</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44923</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44923</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44930</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44931</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44939</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44939</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44943</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44943</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44951</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44952</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44952</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44952</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44952</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44959</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44962</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44970</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44971</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44979</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44981</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44981</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44983</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44986</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>45006</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45028</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45029</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>45035</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>45036</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>45036</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>45036</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>45037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45068</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>45072</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>45079</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45079</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45091</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45104</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>45104</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>45106</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45106</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>45108</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>45114</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>45114</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>45117</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>45118</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>45118</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>45118</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45119</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>45119</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>45148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45152</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>45169</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>45175</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
       </c>
       <c r="R329" s="2" t="inlineStr"/>
     </row>
-    <row r="330">
+    <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
           <t>A 43146-2023</t>
@@ -19922,7 +19922,7 @@
         <v>45183</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19968,6 +19968,63 @@
         <v>0</v>
       </c>
       <c r="R330" s="2" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>A 47851-2023</t>
+        </is>
+      </c>
+      <c r="B331" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C331" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>BLEKINGE LÄN</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>KARLSHAMN</t>
+        </is>
+      </c>
+      <c r="G331" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0</v>
+      </c>
+      <c r="L331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N331" t="n">
+        <v>0</v>
+      </c>
+      <c r="O331" t="n">
+        <v>0</v>
+      </c>
+      <c r="P331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>0</v>
+      </c>
+      <c r="R331" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KARLSHAMN.xlsx
+++ b/Översikt KARLSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44166</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44943</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44158</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43846</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43977</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>43999</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44395</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44595</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44655</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44743</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44901</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>45028</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43320</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43320</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43321</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43321</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43377</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43377</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43392</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43395</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43398</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>43419</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43461</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43486</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43491</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43515</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43521</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43542</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43542</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43543</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43543</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43543</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43543</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43546</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43546</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43549</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43549</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43558</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43559</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>43566</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>43567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>43567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>43567</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43572</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>43588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>43593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43595</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43598</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43602</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43602</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43611</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43612</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43612</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43623</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43628</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43641</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43661</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43661</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43663</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43684</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43686</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43686</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43686</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43686</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43689</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43695</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43707</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43714</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43724</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43724</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43735</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43762</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43790</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43790</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43790</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43791</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>43805</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>43811</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43821</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43822</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43845</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43857</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43859</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43868</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43871</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43880</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43908</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43914</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>43914</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43915</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43915</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43915</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43921</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43922</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43922</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43922</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43930</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43930</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43942</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43948</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44056</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44060</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>44060</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44060</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44061</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44075</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44075</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44076</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44083</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44092</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44105</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44117</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44127</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44128</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44128</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44130</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44133</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44133</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>44148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44181</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44209</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44227</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44238</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44249</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44249</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44251</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44271</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44273</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44287</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44302</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>44308</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>44308</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44314</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44316</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44369</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44395</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44395</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>44395</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44410</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44410</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>44420</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44426</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44439</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44448</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44460</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44462</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44470</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44470</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>44476</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44477</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44480</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>44480</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>44480</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44487</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>44489</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>44489</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44522</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44523</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>44568</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44568</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44568</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44574</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44579</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44579</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44580</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44581</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44582</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44586</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44601</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44606</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44623</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44643</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44649</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44660</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44686</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44690</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44720</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44728</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44743</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44760</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>44776</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44796</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44797</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44797</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44816</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44823</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44827</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44862</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44876</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44897</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44897</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44903</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44923</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44923</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>44930</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44931</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44939</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44939</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44943</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44943</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44951</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>44952</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44952</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44952</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44952</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44959</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>44962</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44970</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44971</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44979</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44981</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44981</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44983</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44986</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>45006</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45028</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45029</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>45035</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>45036</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>45036</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>45036</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>45037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45068</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>45072</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>45079</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45079</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45091</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45104</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>45104</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>45106</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45106</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>45108</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>45114</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>45114</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>45117</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>45118</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>45118</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>45118</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45119</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>45119</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>45148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45152</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>45169</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>45175</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>45183</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>45204</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
